--- a/biology/Médecine/1577_en_santé_et_médecine/1577_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1577_en_santé_et_médecine/1577_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1577_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1577_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1577 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1577_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1577_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>14 août : arrêt du Parlement de Paris « interdisant aux marchands parisiens d'acheter du vin à l'intérieur d'un rayon de vingt lieues (88 km) et ce, pour empêcher que le vignoble envahisse l'Île-de-France au détriment des emblavures[1] ».
-Nicolas Houël crée  à Paris le jardin des simples qui vient d'être fondé par édit du 18 décembre 1576 et qui sera à l'origine du Jardin des apothicaires de la rue de l'Arbalète[2].
-À Montpellier, l’hôpital Saint-Éloi, « établi à l’origine hors les murs, dans le faubourg de Lattes, est déplacé intra-muros en raison des guerres de Religion et de l’insécurité permanente[3] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>14 août : arrêt du Parlement de Paris « interdisant aux marchands parisiens d'acheter du vin à l'intérieur d'un rayon de vingt lieues (88 km) et ce, pour empêcher que le vignoble envahisse l'Île-de-France au détriment des emblavures ».
+Nicolas Houël crée  à Paris le jardin des simples qui vient d'être fondé par édit du 18 décembre 1576 et qui sera à l'origine du Jardin des apothicaires de la rue de l'Arbalète.
+À Montpellier, l’hôpital Saint-Éloi, « établi à l’origine hors les murs, dans le faubourg de Lattes, est déplacé intra-muros en raison des guerres de Religion et de l’insécurité permanente ».</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1577_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1577_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +557,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Andrea Bacci, Tabula simplicium medicamentorum, imprimé à Rome[4].
-Jean Fernel, Febrium curandarum methodus generalis, à Francfort, chez André Wechel[5].
-Jean Liébault, Thesaurus sanitatis paratu facilis, à Paris, chez Jacob du Puys[6].
-Antonio Mizauld, Harmonia superioris naturae mundi et inferioris, à Paris, chez Fédéric Morel l'Ancien[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Andrea Bacci, Tabula simplicium medicamentorum, imprimé à Rome.
+Jean Fernel, Febrium curandarum methodus generalis, à Francfort, chez André Wechel.
+Jean Liébault, Thesaurus sanitatis paratu facilis, à Paris, chez Jacob du Puys.
+Antonio Mizauld, Harmonia superioris naturae mundi et inferioris, à Paris, chez Fédéric Morel l'Ancien.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1577_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1577_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,12 +592,14 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3 octobre : Fortunio Liceti (mort en 1657), médecin, philosophe, universitaire et savant italien[8].
-Thomas Sonnet de Courval (mort en 1627), « gentilhomme normand et médecin satirique[9] ».
-Jean Riolan le Jeune (mort en 1657), « professeur royal d'anatomie et de botanique, médecin d'Henri IV et de Louis XIII, Premier médecin de Marie de Médicis[10] ».
-Giovanni Girolamo Bronziero (it) (mort en 1630), médecin et historien italien[11].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3 octobre : Fortunio Liceti (mort en 1657), médecin, philosophe, universitaire et savant italien.
+Thomas Sonnet de Courval (mort en 1627), « gentilhomme normand et médecin satirique ».
+Jean Riolan le Jeune (mort en 1657), « professeur royal d'anatomie et de botanique, médecin d'Henri IV et de Louis XIII, Premier médecin de Marie de Médicis ».
+Giovanni Girolamo Bronziero (it) (mort en 1630), médecin et historien italien.</t>
         </is>
       </c>
     </row>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1577_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1577_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,14 +627,16 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6 mai (?) : Jean Placotomus (né en 1514), médecin, pédagogue et écrivain allemand[12].
-4 juin : Nicaise Ellebaudt (né en 1535), médecin, philosophe, philologue, traducteur, conseiller, collectionneur et poète flamand[13],[14].
-Adam von Bodenstein (en) (né en 1528), médecin et alchimiste paracelsien suisse[15].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>6 mai (?) : Jean Placotomus (né en 1514), médecin, pédagogue et écrivain allemand.
+4 juin : Nicaise Ellebaudt (né en 1535), médecin, philosophe, philologue, traducteur, conseiller, collectionneur et poète flamand,.
+Adam von Bodenstein (en) (né en 1528), médecin et alchimiste paracelsien suisse.
 Vers 1577 :
-Pierandrea Mattioli (né en 1501), médecin et botaniste italien[16].
-Mariano Santo (it) (né vers 1488), chirurgien italien[17].</t>
+Pierandrea Mattioli (né en 1501), médecin et botaniste italien.
+Mariano Santo (it) (né vers 1488), chirurgien italien.</t>
         </is>
       </c>
     </row>
